--- a/Studies.xlsx
+++ b/Studies.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZXW\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwn\Desktop\github\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FEB4B5-DE62-44A9-8FD2-3F282E957E67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="245">
   <si>
     <t>Proceedings of the International Conference on Software Engineering and Knowledge Engineering, SEKE</t>
   </si>
@@ -819,14 +820,76 @@
   </si>
   <si>
     <t xml:space="preserve">source </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Computers and Industrial Engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Big data analytics architecture design—an application in manufacturing systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE Access</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Big Data Opportunities: System Health Monitoring and Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM/SIGAPP Symposium on Applied Computing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evaluation of ACE properties of traditional SQL and NoSQL big data systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE International Conference on Control Systems and Computer Science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Systems Monitoring and Big Data Analysis Using the Elasticsearch System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE Transactions on Information Forensics and Security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collaboration- and Fairness-Aware Big Data Management in Distributed Clouds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE Conference on Software Quality, Reliability and Security Companion</t>
+  </si>
+  <si>
+    <t>Defect Prediction Based on the Characteristics of Multilayer Structure of Software Network</t>
+  </si>
+  <si>
+    <t>Future Generation Computer Systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BDWatchdog: Real-time monitoring and profiling of Big Data applications and frameworks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flexible System-Level Monitoring of Heterogeneous Big Data Streaming Systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Euromicro Conference on Software Engineering and Advanced Applications</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -851,12 +914,6 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -890,7 +947,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -909,13 +966,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1197,40 +1251,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="73.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="69.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="73.44140625" style="3" customWidth="1"/>
     <col min="3" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="19.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>99</v>
       </c>
@@ -1247,7 +1301,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>34</v>
       </c>
@@ -1264,7 +1318,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1281,7 +1335,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>132</v>
       </c>
@@ -1298,7 +1352,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>77</v>
       </c>
@@ -1315,7 +1369,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -1332,7 +1386,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>62</v>
       </c>
@@ -1349,7 +1403,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>63</v>
       </c>
@@ -1366,7 +1420,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>111</v>
       </c>
@@ -1383,7 +1437,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
@@ -1400,7 +1454,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>51</v>
       </c>
@@ -1417,7 +1471,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>112</v>
       </c>
@@ -1434,7 +1488,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
@@ -1451,7 +1505,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>55</v>
       </c>
@@ -1468,7 +1522,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>105</v>
       </c>
@@ -1485,7 +1539,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
@@ -1502,7 +1556,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>42</v>
       </c>
@@ -1519,7 +1573,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>120</v>
       </c>
@@ -1536,7 +1590,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>96</v>
       </c>
@@ -1553,7 +1607,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>97</v>
       </c>
@@ -1570,7 +1624,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>32</v>
       </c>
@@ -1587,7 +1641,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>95</v>
       </c>
@@ -1604,7 +1658,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>81</v>
       </c>
@@ -1621,7 +1675,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>116</v>
       </c>
@@ -1638,11 +1692,11 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1655,7 +1709,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
@@ -1672,7 +1726,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>57</v>
       </c>
@@ -1689,7 +1743,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>101</v>
       </c>
@@ -1706,7 +1760,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>118</v>
       </c>
@@ -1723,7 +1777,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>68</v>
       </c>
@@ -1740,7 +1794,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>89</v>
       </c>
@@ -1757,7 +1811,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>107</v>
       </c>
@@ -1774,7 +1828,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>43</v>
       </c>
@@ -1791,7 +1845,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
@@ -1808,7 +1862,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>122</v>
       </c>
@@ -1825,7 +1879,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>18</v>
       </c>
@@ -1842,7 +1896,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>72</v>
       </c>
@@ -1859,7 +1913,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>65</v>
       </c>
@@ -1876,7 +1930,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>36</v>
       </c>
@@ -1893,7 +1947,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>77</v>
       </c>
@@ -1910,7 +1964,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>82</v>
       </c>
@@ -1927,7 +1981,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>49</v>
       </c>
@@ -1944,7 +1998,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>74</v>
       </c>
@@ -1961,7 +2015,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>59</v>
       </c>
@@ -1978,7 +2032,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>15</v>
       </c>
@@ -1995,7 +2049,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>30</v>
       </c>
@@ -2012,7 +2066,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>66</v>
       </c>
@@ -2029,7 +2083,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>84</v>
       </c>
@@ -2046,7 +2100,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>93</v>
       </c>
@@ -2063,7 +2117,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>77</v>
       </c>
@@ -2080,7 +2134,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>102</v>
       </c>
@@ -2097,7 +2151,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>76</v>
       </c>
@@ -2114,7 +2168,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>114</v>
       </c>
@@ -2131,7 +2185,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>4</v>
       </c>
@@ -2148,7 +2202,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>60</v>
       </c>
@@ -2165,7 +2219,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>14</v>
       </c>
@@ -2182,11 +2236,11 @@
         <v>167</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -2199,7 +2253,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>38</v>
       </c>
@@ -2216,7 +2270,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>83</v>
       </c>
@@ -2233,7 +2287,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>27</v>
       </c>
@@ -2250,7 +2304,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>64</v>
       </c>
@@ -2267,7 +2321,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>104</v>
       </c>
@@ -2284,7 +2338,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>88</v>
       </c>
@@ -2301,7 +2355,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>69</v>
       </c>
@@ -2318,7 +2372,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>86</v>
       </c>
@@ -2335,7 +2389,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>7</v>
       </c>
@@ -2352,7 +2406,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>15</v>
       </c>
@@ -2369,7 +2423,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>8</v>
       </c>
@@ -2386,7 +2440,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>124</v>
       </c>
@@ -2403,7 +2457,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>78</v>
       </c>
@@ -2420,7 +2474,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>53</v>
       </c>
@@ -2437,7 +2491,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>32</v>
       </c>
@@ -2454,11 +2508,11 @@
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -2471,7 +2525,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>44</v>
       </c>
@@ -2488,7 +2542,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>62</v>
       </c>
@@ -2505,7 +2559,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>46</v>
       </c>
@@ -2522,7 +2576,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>9</v>
       </c>
@@ -2539,7 +2593,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>71</v>
       </c>
@@ -2556,7 +2610,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>121</v>
       </c>
@@ -2573,7 +2627,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>75</v>
       </c>
@@ -2590,7 +2644,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>11</v>
       </c>
@@ -2607,7 +2661,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>91</v>
       </c>
@@ -2624,11 +2678,11 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="5" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="4" t="s">
         <v>183</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -2641,7 +2695,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>48</v>
       </c>
@@ -2658,7 +2712,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>21</v>
       </c>
@@ -2675,7 +2729,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>10</v>
       </c>
@@ -2692,7 +2746,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>90</v>
       </c>
@@ -2709,7 +2763,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>123</v>
       </c>
@@ -2726,7 +2780,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>109</v>
       </c>
@@ -2743,7 +2797,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>32</v>
       </c>
@@ -2760,7 +2814,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>73</v>
       </c>
@@ -2777,7 +2831,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>10</v>
       </c>
@@ -2794,7 +2848,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>100</v>
       </c>
@@ -2811,7 +2865,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>140</v>
       </c>
@@ -2828,8 +2882,152 @@
         <v>157</v>
       </c>
     </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D96" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D97" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D98" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D99" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D100" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D101" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D102" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D103" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:B76">
+  <autoFilter ref="A2:B76" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A2:B79">
       <sortCondition ref="B22"/>
     </sortState>
